--- a/Prospects/HomeSend/XML Deal Generator/BASE/Case 1 (version 2).xlsx
+++ b/Prospects/HomeSend/XML Deal Generator/BASE/Case 1 (version 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\XML Deal Generator\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ED240C-4260-4DED-854E-FFE692533EB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A2AA4-10C8-4C03-8E16-1CCC684A4C20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{123A3C3A-CA81-4564-8BED-B192D3F76CA1}"/>
   </bookViews>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="G2" s="118" t="str">
         <f ca="1">TEXT(NOW(),"YYYMMDD-HMS")&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>20190912-142051-002</v>
+        <v>20190912-142249-002</v>
       </c>
       <c r="H2" t="str">
         <f>B2</f>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="I2" s="118" t="str">
         <f ca="1">G2</f>
-        <v>20190912-142051-002</v>
+        <v>20190912-142249-002</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="U2" s="118" t="str">
         <f ca="1">M2&amp;SUBSTITUTE(G2,"-","")</f>
-        <v>HSBEL20190912142051002</v>
+        <v>HSBEL20190912142249002</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="G3" s="118" t="str">
         <f t="shared" ref="G3:G49" ca="1" si="0">TEXT(NOW(),"YYYMMDD-HMS")&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>20190912-142051-003</v>
+        <v>20190912-142249-003</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H50" si="1">B3</f>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="I3" s="118" t="str">
         <f t="shared" ref="I3:I50" ca="1" si="2">G3</f>
-        <v>20190912-142051-003</v>
+        <v>20190912-142249-003</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="U3" s="118" t="str">
         <f t="shared" ref="U3:U50" ca="1" si="6">M3&amp;SUBSTITUTE(G3,"-","")</f>
-        <v>HSBEL20190912142051003</v>
+        <v>HSBEL20190912142249003</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="G4" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-004</v>
+        <v>20190912-142249-004</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="I4" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-004</v>
+        <v>20190912-142249-004</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="U4" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051004</v>
+        <v>HSBEL20190912142249004</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="G5" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-005</v>
+        <v>20190912-142249-005</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="I5" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-005</v>
+        <v>20190912-142249-005</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="U5" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051005</v>
+        <v>HSBEL20190912142249005</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="G6" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-006</v>
+        <v>20190912-142249-006</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="I6" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-006</v>
+        <v>20190912-142249-006</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="U6" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051006</v>
+        <v>HSBEL20190912142249006</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="G7" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-007</v>
+        <v>20190912-142249-007</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="I7" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-007</v>
+        <v>20190912-142249-007</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="U7" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051007</v>
+        <v>HSBEL20190912142249007</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G8" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-008</v>
+        <v>20190912-142249-008</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="I8" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-008</v>
+        <v>20190912-142249-008</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="U8" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051008</v>
+        <v>HSBEL20190912142249008</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G9" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-009</v>
+        <v>20190912-142249-009</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="I9" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-009</v>
+        <v>20190912-142249-009</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="U9" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051009</v>
+        <v>HSBEL20190912142249009</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="G10" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-010</v>
+        <v>20190912-142249-010</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="I10" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-010</v>
+        <v>20190912-142249-010</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="U10" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051010</v>
+        <v>HSBEL20190912142249010</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="G11" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-011</v>
+        <v>20190912-142249-011</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="I11" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-011</v>
+        <v>20190912-142249-011</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="U11" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051011</v>
+        <v>HSBEL20190912142249011</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="G12" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-012</v>
+        <v>20190912-142249-012</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="I12" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-012</v>
+        <v>20190912-142249-012</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="U12" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051012</v>
+        <v>HSBEL20190912142249012</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="G13" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-013</v>
+        <v>20190912-142249-013</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="I13" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-013</v>
+        <v>20190912-142249-013</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="U13" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051013</v>
+        <v>HSBEL20190912142249013</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="G14" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-014</v>
+        <v>20190912-142249-014</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="I14" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-014</v>
+        <v>20190912-142249-014</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="U14" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051014</v>
+        <v>HSBEL20190912142249014</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="G15" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-015</v>
+        <v>20190912-142249-015</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="I15" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-015</v>
+        <v>20190912-142249-015</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="U15" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051015</v>
+        <v>HSBEL20190912142249015</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="G16" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-016</v>
+        <v>20190912-142249-016</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="I16" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-016</v>
+        <v>20190912-142249-016</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="U16" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051016</v>
+        <v>HSBEL20190912142249016</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="G17" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-017</v>
+        <v>20190912-142249-017</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="I17" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-017</v>
+        <v>20190912-142249-017</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="U17" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051017</v>
+        <v>HSBEL20190912142249017</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="G18" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-018</v>
+        <v>20190912-142249-018</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="I18" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-018</v>
+        <v>20190912-142249-018</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="U18" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051018</v>
+        <v>HSBEL20190912142249018</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="G19" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-019</v>
+        <v>20190912-142249-019</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="I19" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-019</v>
+        <v>20190912-142249-019</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="U19" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051019</v>
+        <v>HSBEL20190912142249019</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="G20" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-020</v>
+        <v>20190912-142249-020</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="I20" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-020</v>
+        <v>20190912-142249-020</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="U20" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051020</v>
+        <v>HSBEL20190912142249020</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="G21" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-021</v>
+        <v>20190912-142249-021</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="I21" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-021</v>
+        <v>20190912-142249-021</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="U21" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051021</v>
+        <v>HSBEL20190912142249021</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="G22" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-022</v>
+        <v>20190912-142249-022</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="I22" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-022</v>
+        <v>20190912-142249-022</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="U22" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051022</v>
+        <v>HSBEL20190912142249022</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G23" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-023</v>
+        <v>20190912-142249-023</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="I23" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-023</v>
+        <v>20190912-142249-023</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="U23" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051023</v>
+        <v>HSBEL20190912142249023</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="G24" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-024</v>
+        <v>20190912-142249-024</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="I24" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-024</v>
+        <v>20190912-142249-024</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="U24" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051024</v>
+        <v>HSBEL20190912142249024</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="G25" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-025</v>
+        <v>20190912-142249-025</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="I25" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-025</v>
+        <v>20190912-142249-025</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="U25" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051025</v>
+        <v>HSBEL20190912142249025</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="G26" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-026</v>
+        <v>20190912-142249-026</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="I26" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-026</v>
+        <v>20190912-142249-026</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="U26" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051026</v>
+        <v>HSBEL20190912142249026</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="G27" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-027</v>
+        <v>20190912-142249-027</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="I27" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-027</v>
+        <v>20190912-142249-027</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="U27" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051027</v>
+        <v>HSBEL20190912142249027</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="G28" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-028</v>
+        <v>20190912-142249-028</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="I28" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-028</v>
+        <v>20190912-142249-028</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="U28" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051028</v>
+        <v>HSBEL20190912142249028</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="G29" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-029</v>
+        <v>20190912-142249-029</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="I29" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-029</v>
+        <v>20190912-142249-029</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="U29" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051029</v>
+        <v>HSBEL20190912142249029</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="G30" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-030</v>
+        <v>20190912-142249-030</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="I30" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-030</v>
+        <v>20190912-142249-030</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="U30" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051030</v>
+        <v>HSBEL20190912142249030</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="G31" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-031</v>
+        <v>20190912-142249-031</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="I31" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-031</v>
+        <v>20190912-142249-031</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="U31" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051031</v>
+        <v>HSBEL20190912142249031</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="G32" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-032</v>
+        <v>20190912-142249-032</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="I32" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-032</v>
+        <v>20190912-142249-032</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="U32" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051032</v>
+        <v>HSBEL20190912142249032</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="G33" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-033</v>
+        <v>20190912-142249-033</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
@@ -6960,7 +6960,7 @@
       </c>
       <c r="I33" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-033</v>
+        <v>20190912-142249-033</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="U33" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051033</v>
+        <v>HSBEL20190912142249033</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="G34" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-034</v>
+        <v>20190912-142249-034</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="I34" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-034</v>
+        <v>20190912-142249-034</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="U34" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051034</v>
+        <v>HSBEL20190912142249034</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="G35" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-035</v>
+        <v>20190912-142249-035</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="I35" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-035</v>
+        <v>20190912-142249-035</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="U35" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051035</v>
+        <v>HSBEL20190912142249035</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="G36" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-036</v>
+        <v>20190912-142249-036</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
@@ -7182,7 +7182,7 @@
       </c>
       <c r="I36" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-036</v>
+        <v>20190912-142249-036</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="U36" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051036</v>
+        <v>HSBEL20190912142249036</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="G37" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-037</v>
+        <v>20190912-142249-037</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="I37" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-037</v>
+        <v>20190912-142249-037</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="U37" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051037</v>
+        <v>HSBEL20190912142249037</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="G38" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-038</v>
+        <v>20190912-142249-038</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="I38" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-038</v>
+        <v>20190912-142249-038</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="U38" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051038</v>
+        <v>HSBEL20190912142249038</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="G39" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-039</v>
+        <v>20190912-142249-039</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="I39" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-039</v>
+        <v>20190912-142249-039</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="U39" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051039</v>
+        <v>HSBEL20190912142249039</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G40" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-040</v>
+        <v>20190912-142249-040</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="I40" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-040</v>
+        <v>20190912-142249-040</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="U40" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051040</v>
+        <v>HSBEL20190912142249040</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="G41" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-041</v>
+        <v>20190912-142249-041</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="I41" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-041</v>
+        <v>20190912-142249-041</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="U41" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051041</v>
+        <v>HSBEL20190912142249041</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="G42" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-042</v>
+        <v>20190912-142249-042</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I42" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-042</v>
+        <v>20190912-142249-042</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="U42" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051042</v>
+        <v>HSBEL20190912142249042</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="G43" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-043</v>
+        <v>20190912-142249-043</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="I43" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-043</v>
+        <v>20190912-142249-043</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="U43" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051043</v>
+        <v>HSBEL20190912142249043</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="G44" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-044</v>
+        <v>20190912-142249-044</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="I44" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-044</v>
+        <v>20190912-142249-044</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="U44" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051044</v>
+        <v>HSBEL20190912142249044</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="G45" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-045</v>
+        <v>20190912-142249-045</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="I45" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-045</v>
+        <v>20190912-142249-045</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="U45" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051045</v>
+        <v>HSBEL20190912142249045</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="G46" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-046</v>
+        <v>20190912-142249-046</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="I46" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-046</v>
+        <v>20190912-142249-046</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="U46" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051046</v>
+        <v>HSBEL20190912142249046</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="G47" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-047</v>
+        <v>20190912-142249-047</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="I47" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-047</v>
+        <v>20190912-142249-047</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="U47" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051047</v>
+        <v>HSBEL20190912142249047</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="G48" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-048</v>
+        <v>20190912-142249-048</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="I48" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-048</v>
+        <v>20190912-142249-048</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="U48" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051048</v>
+        <v>HSBEL20190912142249048</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="G49" s="118" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20190912-142051-049</v>
+        <v>20190912-142249-049</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="I49" s="118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20190912-142051-049</v>
+        <v>20190912-142249-049</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="U49" s="118" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142051049</v>
+        <v>HSBEL20190912142249049</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">

--- a/Prospects/HomeSend/XML Deal Generator/BASE/Case 1 (version 2).xlsx
+++ b/Prospects/HomeSend/XML Deal Generator/BASE/Case 1 (version 2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\XML Deal Generator\BASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matttownsend/Google Drive/eurobase/repos/ebSiena-DemoSystemData/Prospects/HomeSend/XML Deal Generator/BASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A2AA4-10C8-4C03-8E16-1CCC684A4C20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B619E-913D-754C-BE23-7160BCD0832E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{123A3C3A-CA81-4564-8BED-B192D3F76CA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{123A3C3A-CA81-4564-8BED-B192D3F76CA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 1" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Balance representation'!$A$1:$G$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -316,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -694,7 +693,7 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -730,12 +729,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,7 +745,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,21 +755,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,55 +779,55 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="5" applyBorder="1"/>
@@ -852,13 +851,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -882,12 +881,12 @@
     <xf numFmtId="20" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -904,12 +903,12 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,9 +916,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -946,21 +960,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -989,36 +988,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Setup"/>
       <sheetName val="Accounts"/>
-      <sheetName val="SpotUpload"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="StatementUpload"/>
-      <sheetName val="Sample"/>
-      <sheetName val="ReconAccounts"/>
-      <sheetName val="ReconUpload"/>
-      <sheetName val="RUN"/>
-      <sheetName val="Term"/>
-      <sheetName val="$Term2"/>
-      <sheetName val="$TermInterestDates"/>
-      <sheetName val="$TermInterestRates"/>
-      <sheetName val="$TermInterestAmortisations"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1327,13 +1300,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -1341,7 +1314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1365,7 +1338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
@@ -1397,17 +1370,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -1426,54 +1399,54 @@
       <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="120" t="s">
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="125" t="s">
+      <c r="I1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="120"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="125" t="s">
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="121"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="126"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1522,7 +1495,7 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="84">
         <v>0.33333333333333331</v>
       </c>
@@ -1547,7 +1520,7 @@
       <c r="R3" s="16"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="84">
         <v>0.375</v>
       </c>
@@ -1572,7 +1545,7 @@
       <c r="R4" s="16"/>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="85">
         <v>0.41666666666666669</v>
       </c>
@@ -1605,7 +1578,7 @@
       <c r="O5" s="7"/>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="85">
         <v>0.41666666666666669</v>
       </c>
@@ -1638,7 +1611,7 @@
       <c r="O6" s="7"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
         <v>0.41666666666666669</v>
       </c>
@@ -1671,7 +1644,7 @@
       <c r="O7" s="7"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>0.4375</v>
       </c>
@@ -1704,7 +1677,7 @@
       <c r="O8" s="7"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1743,7 +1716,7 @@
       <c r="O9" s="7"/>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1776,7 +1749,7 @@
       <c r="O10" s="7"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1805,7 +1778,7 @@
       <c r="O11" s="7"/>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1834,7 +1807,7 @@
       <c r="O12" s="7"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1863,7 +1836,7 @@
       <c r="O13" s="7"/>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1892,7 +1865,7 @@
       <c r="O14" s="7"/>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1921,7 +1894,7 @@
       <c r="O15" s="7"/>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1950,7 +1923,7 @@
       <c r="O16" s="7"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -1979,7 +1952,7 @@
       <c r="O17" s="7"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -2008,7 +1981,7 @@
       <c r="O18" s="7"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="88">
         <v>0.45902777777777781</v>
       </c>
@@ -2037,7 +2010,7 @@
       <c r="O19" s="7"/>
       <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2072,7 +2045,7 @@
       <c r="O20" s="7"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2100,7 +2073,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2128,7 +2101,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2156,7 +2129,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2184,7 +2157,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2212,7 +2185,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2240,7 +2213,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2268,7 +2241,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2296,7 +2269,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2324,7 +2297,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2352,7 +2325,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2380,7 +2353,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2408,7 +2381,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2436,7 +2409,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2464,7 +2437,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2492,7 +2465,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2520,7 +2493,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2548,7 +2521,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2576,7 +2549,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2604,7 +2577,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2632,7 +2605,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2660,7 +2633,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2688,7 +2661,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2716,7 +2689,7 @@
       <c r="N43" s="5"/>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -2744,7 +2717,7 @@
       <c r="N44" s="8"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -2772,16 +2745,16 @@
       <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
@@ -2802,8 +2775,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="126">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="131">
         <v>0.41597222222222219</v>
       </c>
       <c r="B2" s="73" t="s">
@@ -2815,8 +2788,8 @@
       <c r="F2" s="54"/>
       <c r="G2" s="55"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="132"/>
       <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
@@ -2832,8 +2805,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="132"/>
       <c r="B4" s="75" t="s">
         <v>11</v>
       </c>
@@ -2849,8 +2822,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="132"/>
       <c r="B5" s="75" t="s">
         <v>13</v>
       </c>
@@ -2860,8 +2833,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="132"/>
       <c r="B6" s="74" t="s">
         <v>12</v>
       </c>
@@ -2871,8 +2844,8 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="132"/>
       <c r="B7" s="75" t="s">
         <v>11</v>
       </c>
@@ -2882,8 +2855,8 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="132"/>
       <c r="B8" s="75" t="s">
         <v>13</v>
       </c>
@@ -2893,8 +2866,8 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="132"/>
       <c r="B9" s="74" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +2877,8 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="132"/>
       <c r="B10" s="75" t="s">
         <v>11</v>
       </c>
@@ -2915,8 +2888,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="132"/>
       <c r="B11" s="75" t="s">
         <v>13</v>
       </c>
@@ -2926,8 +2899,8 @@
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="132"/>
       <c r="B12" s="74" t="s">
         <v>14</v>
       </c>
@@ -2937,8 +2910,8 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="132"/>
       <c r="B13" s="75" t="s">
         <v>11</v>
       </c>
@@ -2948,8 +2921,8 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="132"/>
       <c r="B14" s="75" t="s">
         <v>13</v>
       </c>
@@ -2959,8 +2932,8 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="132"/>
       <c r="B15" s="74" t="s">
         <v>4</v>
       </c>
@@ -2970,8 +2943,8 @@
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="132"/>
       <c r="B16" s="75" t="s">
         <v>11</v>
       </c>
@@ -2981,8 +2954,8 @@
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="132"/>
       <c r="B17" s="75" t="s">
         <v>13</v>
       </c>
@@ -2992,8 +2965,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="132"/>
       <c r="B18" s="76" t="s">
         <v>15</v>
       </c>
@@ -3009,8 +2982,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="132"/>
       <c r="B19" s="77" t="s">
         <v>16</v>
       </c>
@@ -3026,8 +2999,8 @@
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="128"/>
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="133"/>
       <c r="B20" s="78" t="s">
         <v>17</v>
       </c>
@@ -3043,8 +3016,8 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="126">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="131">
         <v>0.4375</v>
       </c>
       <c r="B21" s="73" t="s">
@@ -3056,8 +3029,8 @@
       <c r="F21" s="54"/>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="132"/>
       <c r="B22" s="74" t="s">
         <v>2</v>
       </c>
@@ -3073,8 +3046,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="132"/>
       <c r="B23" s="75" t="s">
         <v>11</v>
       </c>
@@ -3090,8 +3063,8 @@
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="132"/>
       <c r="B24" s="75" t="s">
         <v>13</v>
       </c>
@@ -3101,8 +3074,8 @@
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="132"/>
       <c r="B25" s="74" t="s">
         <v>12</v>
       </c>
@@ -3115,8 +3088,8 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="132"/>
       <c r="B26" s="75" t="s">
         <v>11</v>
       </c>
@@ -3126,8 +3099,8 @@
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="132"/>
       <c r="B27" s="75" t="s">
         <v>13</v>
       </c>
@@ -3140,8 +3113,8 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="132"/>
       <c r="B28" s="79" t="s">
         <v>18</v>
       </c>
@@ -3156,8 +3129,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="132"/>
       <c r="B29" s="74" t="s">
         <v>3</v>
       </c>
@@ -3167,8 +3140,8 @@
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="132"/>
       <c r="B30" s="75" t="s">
         <v>11</v>
       </c>
@@ -3178,8 +3151,8 @@
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="132"/>
       <c r="B31" s="75" t="s">
         <v>13</v>
       </c>
@@ -3189,8 +3162,8 @@
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="132"/>
       <c r="B32" s="74" t="s">
         <v>14</v>
       </c>
@@ -3200,8 +3173,8 @@
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="132"/>
       <c r="B33" s="75" t="s">
         <v>11</v>
       </c>
@@ -3211,8 +3184,8 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="132"/>
       <c r="B34" s="75" t="s">
         <v>13</v>
       </c>
@@ -3222,8 +3195,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="132"/>
       <c r="B35" s="74" t="s">
         <v>4</v>
       </c>
@@ -3233,8 +3206,8 @@
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="127"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="132"/>
       <c r="B36" s="75" t="s">
         <v>11</v>
       </c>
@@ -3244,8 +3217,8 @@
       <c r="F36" s="6"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="132"/>
       <c r="B37" s="75" t="s">
         <v>13</v>
       </c>
@@ -3255,8 +3228,8 @@
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="127"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="132"/>
       <c r="B38" s="76" t="s">
         <v>15</v>
       </c>
@@ -3277,8 +3250,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="132"/>
       <c r="B39" s="77" t="s">
         <v>16</v>
       </c>
@@ -3299,8 +3272,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
+    <row r="40" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="133"/>
       <c r="B40" s="78" t="s">
         <v>17</v>
       </c>
@@ -3321,8 +3294,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="126">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="131">
         <v>0.4381944444444445</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -3334,8 +3307,8 @@
       <c r="F41" s="54"/>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="132"/>
       <c r="B42" s="74" t="s">
         <v>76</v>
       </c>
@@ -3351,8 +3324,8 @@
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="132"/>
       <c r="B43" s="75" t="s">
         <v>11</v>
       </c>
@@ -3368,8 +3341,8 @@
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="132"/>
       <c r="B44" s="75" t="s">
         <v>13</v>
       </c>
@@ -3379,8 +3352,8 @@
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="127"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="132"/>
       <c r="B45" s="74" t="s">
         <v>12</v>
       </c>
@@ -3393,8 +3366,8 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="132"/>
       <c r="B46" s="75" t="s">
         <v>11</v>
       </c>
@@ -3404,8 +3377,8 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="132"/>
       <c r="B47" s="75" t="s">
         <v>13</v>
       </c>
@@ -3418,8 +3391,8 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="132"/>
       <c r="B48" s="79" t="s">
         <v>18</v>
       </c>
@@ -3432,8 +3405,8 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="132"/>
       <c r="B49" s="74" t="s">
         <v>3</v>
       </c>
@@ -3452,8 +3425,8 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="127"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="132"/>
       <c r="B50" s="75" t="s">
         <v>11</v>
       </c>
@@ -3466,8 +3439,8 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="127"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="132"/>
       <c r="B51" s="75" t="s">
         <v>13</v>
       </c>
@@ -3483,8 +3456,8 @@
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="127"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="132"/>
       <c r="B52" s="74" t="s">
         <v>14</v>
       </c>
@@ -3494,8 +3467,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="127"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="132"/>
       <c r="B53" s="75" t="s">
         <v>11</v>
       </c>
@@ -3505,8 +3478,8 @@
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="127"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="132"/>
       <c r="B54" s="75" t="s">
         <v>13</v>
       </c>
@@ -3516,8 +3489,8 @@
       <c r="F54" s="6"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="127"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="132"/>
       <c r="B55" s="74" t="s">
         <v>4</v>
       </c>
@@ -3527,8 +3500,8 @@
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="127"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="132"/>
       <c r="B56" s="75" t="s">
         <v>11</v>
       </c>
@@ -3538,8 +3511,8 @@
       <c r="F56" s="6"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="132"/>
       <c r="B57" s="75" t="s">
         <v>13</v>
       </c>
@@ -3549,8 +3522,8 @@
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="127"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="132"/>
       <c r="B58" s="76" t="s">
         <v>15</v>
       </c>
@@ -3571,8 +3544,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="127"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="132"/>
       <c r="B59" s="77" t="s">
         <v>16</v>
       </c>
@@ -3593,8 +3566,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="128"/>
+    <row r="60" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="133"/>
       <c r="B60" s="78" t="s">
         <v>17</v>
       </c>
@@ -3615,8 +3588,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="126">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="131">
         <v>0.45902777777777781</v>
       </c>
       <c r="B61" s="73" t="s">
@@ -3628,8 +3601,8 @@
       <c r="F61" s="54"/>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="127"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="132"/>
       <c r="B62" s="74" t="s">
         <v>2</v>
       </c>
@@ -3645,8 +3618,8 @@
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="127"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="132"/>
       <c r="B63" s="75" t="s">
         <v>11</v>
       </c>
@@ -3662,8 +3635,8 @@
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="127"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="132"/>
       <c r="B64" s="75" t="s">
         <v>13</v>
       </c>
@@ -3673,8 +3646,8 @@
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="127"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="132"/>
       <c r="B65" s="74" t="s">
         <v>12</v>
       </c>
@@ -3690,8 +3663,8 @@
         <v>-69669</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="127"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="132"/>
       <c r="B66" s="75" t="s">
         <v>11</v>
       </c>
@@ -3699,8 +3672,8 @@
       <c r="D66" s="3"/>
       <c r="E66" s="43"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="127"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="132"/>
       <c r="B67" s="75" t="s">
         <v>13</v>
       </c>
@@ -3716,8 +3689,8 @@
         <v>69669</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="127"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="132"/>
       <c r="B68" s="79" t="s">
         <v>18</v>
       </c>
@@ -3727,8 +3700,8 @@
       <c r="F68" s="62"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="127"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="132"/>
       <c r="B69" s="74" t="s">
         <v>3</v>
       </c>
@@ -3750,8 +3723,8 @@
         <v>206000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="127"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="132"/>
       <c r="B70" s="75" t="s">
         <v>11</v>
       </c>
@@ -3767,8 +3740,8 @@
         <v>206000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="127"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="132"/>
       <c r="B71" s="75" t="s">
         <v>13</v>
       </c>
@@ -3784,8 +3757,8 @@
       <c r="F71" s="6"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="127"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="132"/>
       <c r="B72" s="74" t="s">
         <v>14</v>
       </c>
@@ -3795,8 +3768,8 @@
       <c r="F72" s="6"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="127"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="132"/>
       <c r="B73" s="75" t="s">
         <v>11</v>
       </c>
@@ -3806,8 +3779,8 @@
       <c r="F73" s="6"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="127"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="132"/>
       <c r="B74" s="75" t="s">
         <v>13</v>
       </c>
@@ -3817,8 +3790,8 @@
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="127"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="132"/>
       <c r="B75" s="74" t="s">
         <v>4</v>
       </c>
@@ -3828,8 +3801,8 @@
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="127"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="132"/>
       <c r="B76" s="75" t="s">
         <v>11</v>
       </c>
@@ -3839,8 +3812,8 @@
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="127"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="132"/>
       <c r="B77" s="75" t="s">
         <v>13</v>
       </c>
@@ -3850,8 +3823,8 @@
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="127"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="132"/>
       <c r="B78" s="76" t="s">
         <v>15</v>
       </c>
@@ -3873,8 +3846,8 @@
         <v>136331</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="127"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="132"/>
       <c r="B79" s="77" t="s">
         <v>16</v>
       </c>
@@ -3896,8 +3869,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="128"/>
+    <row r="80" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="133"/>
       <c r="B80" s="78" t="s">
         <v>17</v>
       </c>
@@ -3919,8 +3892,8 @@
         <v>136331</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="126">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="131">
         <v>0.54166666666666663</v>
       </c>
       <c r="B81" s="73" t="s">
@@ -3932,8 +3905,8 @@
       <c r="F81" s="54"/>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="127"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="132"/>
       <c r="B82" s="74" t="s">
         <v>2</v>
       </c>
@@ -3949,8 +3922,8 @@
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="127"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="132"/>
       <c r="B83" s="75" t="s">
         <v>11</v>
       </c>
@@ -3966,8 +3939,8 @@
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="127"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="132"/>
       <c r="B84" s="75" t="s">
         <v>13</v>
       </c>
@@ -3977,8 +3950,8 @@
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="127"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="132"/>
       <c r="B85" s="74" t="s">
         <v>12</v>
       </c>
@@ -3994,8 +3967,8 @@
         <v>-203481.2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="127"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
       <c r="B86" s="75" t="s">
         <v>11</v>
       </c>
@@ -4005,8 +3978,8 @@
       <c r="F86" s="6"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="127"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
       <c r="B87" s="75" t="s">
         <v>13</v>
       </c>
@@ -4022,8 +3995,8 @@
         <v>203481.2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="127"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="132"/>
       <c r="B88" s="79" t="s">
         <v>18</v>
       </c>
@@ -4036,8 +4009,8 @@
       </c>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="127"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="132"/>
       <c r="B89" s="74" t="s">
         <v>3</v>
       </c>
@@ -4059,8 +4032,8 @@
         <v>206000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="127"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="132"/>
       <c r="B90" s="75" t="s">
         <v>11</v>
       </c>
@@ -4076,8 +4049,8 @@
         <v>206000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="127"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="132"/>
       <c r="B91" s="75" t="s">
         <v>13</v>
       </c>
@@ -4093,8 +4066,8 @@
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="127"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="132"/>
       <c r="B92" s="74" t="s">
         <v>14</v>
       </c>
@@ -4104,8 +4077,8 @@
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="127"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="132"/>
       <c r="B93" s="75" t="s">
         <v>11</v>
       </c>
@@ -4115,8 +4088,8 @@
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="127"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="132"/>
       <c r="B94" s="75" t="s">
         <v>13</v>
       </c>
@@ -4126,8 +4099,8 @@
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="127"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="132"/>
       <c r="B95" s="74" t="s">
         <v>4</v>
       </c>
@@ -4137,8 +4110,8 @@
       <c r="F95" s="6"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="127"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="132"/>
       <c r="B96" s="75" t="s">
         <v>11</v>
       </c>
@@ -4148,8 +4121,8 @@
       <c r="F96" s="6"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="127"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="132"/>
       <c r="B97" s="75" t="s">
         <v>13</v>
       </c>
@@ -4159,8 +4132,8 @@
       <c r="F97" s="6"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="127"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="132"/>
       <c r="B98" s="76" t="s">
         <v>15</v>
       </c>
@@ -4182,8 +4155,8 @@
         <v>2518.7999999999884</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="127"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="132"/>
       <c r="B99" s="77" t="s">
         <v>16</v>
       </c>
@@ -4205,8 +4178,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="128"/>
+    <row r="100" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="133"/>
       <c r="B100" s="78" t="s">
         <v>17</v>
       </c>
@@ -4228,8 +4201,8 @@
         <v>2518.7999999999884</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="126">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="131">
         <v>0.5625</v>
       </c>
       <c r="B101" s="73" t="s">
@@ -4241,8 +4214,8 @@
       <c r="F101" s="54"/>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="127"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="132"/>
       <c r="B102" s="74" t="s">
         <v>2</v>
       </c>
@@ -4258,8 +4231,8 @@
       <c r="F102" s="6"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="127"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="132"/>
       <c r="B103" s="75" t="s">
         <v>11</v>
       </c>
@@ -4275,8 +4248,8 @@
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="127"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="132"/>
       <c r="B104" s="75" t="s">
         <v>13</v>
       </c>
@@ -4286,8 +4259,8 @@
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="127"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="132"/>
       <c r="B105" s="74" t="s">
         <v>12</v>
       </c>
@@ -4303,8 +4276,8 @@
         <v>-242044</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="127"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="132"/>
       <c r="B106" s="75" t="s">
         <v>11</v>
       </c>
@@ -4314,8 +4287,8 @@
       <c r="F106" s="6"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="127"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="132"/>
       <c r="B107" s="75" t="s">
         <v>13</v>
       </c>
@@ -4331,8 +4304,8 @@
         <v>242044</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="127"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="132"/>
       <c r="B108" s="79" t="s">
         <v>18</v>
       </c>
@@ -4345,8 +4318,8 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="127"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="132"/>
       <c r="B109" s="74" t="s">
         <v>3</v>
       </c>
@@ -4368,8 +4341,8 @@
         <v>247160</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="127"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="132"/>
       <c r="B110" s="75" t="s">
         <v>11</v>
       </c>
@@ -4385,8 +4358,8 @@
         <v>247160</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="127"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="132"/>
       <c r="B111" s="75" t="s">
         <v>13</v>
       </c>
@@ -4402,8 +4375,8 @@
       <c r="F111" s="6"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="127"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="132"/>
       <c r="B112" s="74" t="s">
         <v>14</v>
       </c>
@@ -4413,8 +4386,8 @@
       <c r="F112" s="6"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="127"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="132"/>
       <c r="B113" s="75" t="s">
         <v>11</v>
       </c>
@@ -4424,8 +4397,8 @@
       <c r="F113" s="6"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="127"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="132"/>
       <c r="B114" s="75" t="s">
         <v>13</v>
       </c>
@@ -4435,8 +4408,8 @@
       <c r="F114" s="6"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="127"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="132"/>
       <c r="B115" s="74" t="s">
         <v>4</v>
       </c>
@@ -4446,8 +4419,8 @@
       <c r="F115" s="6"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="127"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="132"/>
       <c r="B116" s="75" t="s">
         <v>11</v>
       </c>
@@ -4457,8 +4430,8 @@
       <c r="F116" s="6"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="127"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="132"/>
       <c r="B117" s="75" t="s">
         <v>13</v>
       </c>
@@ -4468,8 +4441,8 @@
       <c r="F117" s="6"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="127"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="132"/>
       <c r="B118" s="76" t="s">
         <v>15</v>
       </c>
@@ -4491,8 +4464,8 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="127"/>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="132"/>
       <c r="B119" s="77" t="s">
         <v>16</v>
       </c>
@@ -4514,8 +4487,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="128"/>
+    <row r="120" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="133"/>
       <c r="B120" s="78" t="s">
         <v>17</v>
       </c>
@@ -4556,36 +4529,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC30BE6-3F8B-48CA-B60B-B1A10EB83E8C}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="116" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="116" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="116" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="116" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="120" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="116" t="s">
@@ -4640,7 +4613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="119">
         <f>Instructions!A3</f>
         <v>0.33333333333333331</v>
@@ -4648,7 +4621,7 @@
       <c r="B2" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="121" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="108">
@@ -4659,7 +4632,7 @@
       </c>
       <c r="G2" s="118" t="str">
         <f ca="1">TEXT(NOW(),"YYYMMDD-HMS")&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>20190912-142249-002</v>
+        <v>20190913-125432-002</v>
       </c>
       <c r="H2" t="str">
         <f>B2</f>
@@ -4667,18 +4640,18 @@
       </c>
       <c r="I2" s="118" t="str">
         <f ca="1">G2</f>
-        <v>20190912-142249-002</v>
+        <v>20190913-125432-002</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" s="117">
         <f ca="1">TODAY()</f>
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="L2" s="119" t="str">
-        <f ca="1">"ext."&amp;TEXT(TODAY(),"YmMD.")&amp;TEXT(A2,"HHMM.")&amp;TEXT(ROW(),"0000")</f>
-        <v>ext.190912.0800.0002</v>
+        <f ca="1">"ext.UC1."&amp;TEXT(A2,"HHMM")&amp;TEXT(TODAY(),"YmMD")&amp;TEXT(ROW(),"000000")</f>
+        <v>ext.UC1.0800190913000002</v>
       </c>
       <c r="M2" t="s">
         <v>63</v>
@@ -4688,11 +4661,11 @@
         <v>RECEIVE</v>
       </c>
       <c r="O2" t="str">
-        <f>C2</f>
+        <f t="shared" ref="O2:O14" si="0">C2</f>
         <v>USD</v>
       </c>
       <c r="P2" s="14">
-        <f>D2</f>
+        <f t="shared" ref="P2:P14" si="1">D2</f>
         <v>40000</v>
       </c>
       <c r="Q2" t="s">
@@ -4700,21 +4673,21 @@
       </c>
       <c r="R2" s="117">
         <f ca="1">K2</f>
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="S2" t="str">
-        <f ca="1">H2&amp;" Imported @ "&amp;TEXT(A2,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Cash Transfer Imported @ 08:00 on 12 Sep 2019</v>
+        <f ca="1">"UC1 "&amp;H2&amp;" Imported @ "&amp;TEXT(A2,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
+        <v>UC1 Cash Transfer Imported @ 08:00 on 13 Sep 2019</v>
       </c>
       <c r="T2" s="116" t="s">
         <v>74</v>
       </c>
       <c r="U2" s="118" t="str">
         <f ca="1">M2&amp;SUBSTITUTE(G2,"-","")</f>
-        <v>HSBEL20190912142249002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>HSBEL20190913125432002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="84">
         <v>0.375</v>
       </c>
@@ -4731,41 +4704,41 @@
         <v>71</v>
       </c>
       <c r="G3" s="118" t="str">
-        <f t="shared" ref="G3:G49" ca="1" si="0">TEXT(NOW(),"YYYMMDD-HMS")&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>20190912-142249-003</v>
+        <f t="shared" ref="G3:G49" ca="1" si="2">TEXT(NOW(),"YYYMMDD-HMS")&amp;"-"&amp;TEXT(ROW(),"000")</f>
+        <v>20190913-125432-003</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H50" si="1">B3</f>
+        <f t="shared" ref="H3:H50" si="3">B3</f>
         <v>Cash Transfer</v>
       </c>
       <c r="I3" s="118" t="str">
-        <f t="shared" ref="I3:I50" ca="1" si="2">G3</f>
-        <v>20190912-142249-003</v>
+        <f t="shared" ref="I3:I50" ca="1" si="4">G3</f>
+        <v>20190913-125432-003</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="117">
-        <f t="shared" ref="K3:K50" ca="1" si="3">TODAY()</f>
-        <v>43720</v>
+        <f t="shared" ref="K3:K50" ca="1" si="5">TODAY()</f>
+        <v>43721</v>
       </c>
       <c r="L3" s="119" t="str">
-        <f t="shared" ref="L3:L50" ca="1" si="4">"ext."&amp;TEXT(TODAY(),"YmMD.")&amp;TEXT(A3,"HHMM.")&amp;TEXT(ROW(),"0000")</f>
-        <v>ext.190912.0900.0003</v>
+        <f t="shared" ref="L3:L50" ca="1" si="6">"ext.UC1."&amp;TEXT(A3,"HHMM")&amp;TEXT(TODAY(),"YmMD")&amp;TEXT(ROW(),"000000")</f>
+        <v>ext.UC1.0900190913000003</v>
       </c>
       <c r="M3" t="s">
         <v>63</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N14" si="5">E3</f>
+        <f t="shared" ref="N3:N14" si="7">E3</f>
         <v>RECEIVE</v>
       </c>
       <c r="O3" t="str">
-        <f>C3</f>
+        <f t="shared" si="0"/>
         <v>USD</v>
       </c>
       <c r="P3" s="14">
-        <f>D3</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="Q3" t="s">
@@ -4773,29 +4746,29 @@
       </c>
       <c r="R3" s="117">
         <f ca="1">R2</f>
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="S3" t="str">
-        <f ca="1">H3&amp;" Imported @ "&amp;TEXT(A3,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Cash Transfer Imported @ 09:00 on 12 Sep 2019</v>
+        <f t="shared" ref="S3:S50" ca="1" si="8">"UC1 "&amp;H3&amp;" Imported @ "&amp;TEXT(A3,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
+        <v>UC1 Cash Transfer Imported @ 09:00 on 13 Sep 2019</v>
       </c>
       <c r="T3" s="116" t="str">
         <f>T2</f>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U3" s="118" t="str">
-        <f t="shared" ref="U3:U50" ca="1" si="6">M3&amp;SUBSTITUTE(G3,"-","")</f>
-        <v>HSBEL20190912142249003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U3:U50" ca="1" si="9">M3&amp;SUBSTITUTE(G3,"-","")</f>
+        <v>HSBEL20190913125432003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="85">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="122" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="28">
@@ -4805,71 +4778,71 @@
         <v>71</v>
       </c>
       <c r="G4" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-004</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cash Transfer</v>
       </c>
       <c r="I4" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-004</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L4" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1000.0004</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1000190913000004</v>
       </c>
       <c r="M4" t="s">
         <v>63</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>RECEIVE</v>
       </c>
       <c r="O4" t="str">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>USD</v>
       </c>
       <c r="P4" s="14">
-        <f>D4</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="Q4" t="s">
         <v>61</v>
       </c>
       <c r="R4" s="117">
-        <f t="shared" ref="R4:R50" ca="1" si="7">R3</f>
-        <v>43720</v>
+        <f t="shared" ref="R4:R50" ca="1" si="10">R3</f>
+        <v>43721</v>
       </c>
       <c r="S4" t="str">
-        <f ca="1">H4&amp;" Imported @ "&amp;TEXT(A4,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Cash Transfer Imported @ 10:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Cash Transfer Imported @ 10:00 on 13 Sep 2019</v>
       </c>
       <c r="T4" s="116" t="str">
-        <f t="shared" ref="T4:T50" si="8">T3</f>
+        <f t="shared" ref="T4:T50" si="11">T3</f>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U4" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="85">
         <v>0.41666666666666669</v>
       </c>
       <c r="B5" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="122" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="28">
@@ -4879,71 +4852,71 @@
         <v>71</v>
       </c>
       <c r="G5" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-005</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-005</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cash Transfer</v>
       </c>
       <c r="I5" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-005</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-005</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L5" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1000.0005</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1000190913000005</v>
       </c>
       <c r="M5" t="s">
         <v>63</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>RECEIVE</v>
       </c>
       <c r="O5" t="str">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>USD</v>
       </c>
       <c r="P5" s="14">
-        <f>D5</f>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="Q5" t="s">
         <v>61</v>
       </c>
       <c r="R5" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S5" t="str">
-        <f ca="1">H5&amp;" Imported @ "&amp;TEXT(A5,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Cash Transfer Imported @ 10:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Cash Transfer Imported @ 10:00 on 13 Sep 2019</v>
       </c>
       <c r="T5" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U5" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="85">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="122" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="28">
@@ -4953,64 +4926,64 @@
         <v>71</v>
       </c>
       <c r="G6" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-006</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-006</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cash Transfer</v>
       </c>
       <c r="I6" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-006</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-006</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L6" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1000.0006</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1000190913000006</v>
       </c>
       <c r="M6" t="s">
         <v>63</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>RECEIVE</v>
       </c>
       <c r="O6" t="str">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>USD</v>
       </c>
       <c r="P6" s="14">
-        <f>D6</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Q6" t="s">
         <v>61</v>
       </c>
       <c r="R6" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S6" t="str">
-        <f ca="1">H6&amp;" Imported @ "&amp;TEXT(A6,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Cash Transfer Imported @ 10:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Cash Transfer Imported @ 10:00 on 13 Sep 2019</v>
       </c>
       <c r="T6" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U6" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
         <v>0.41666666666666669</v>
       </c>
@@ -5027,64 +5000,64 @@
         <v>64</v>
       </c>
       <c r="G7" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-007</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-007</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I7" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-007</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-007</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L7" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1000.0007</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1000190913000007</v>
       </c>
       <c r="M7" t="s">
         <v>63</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>PAY</v>
       </c>
       <c r="O7" t="str">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>BRL</v>
       </c>
       <c r="P7" s="14">
-        <f>D7</f>
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="Q7" t="s">
         <v>61</v>
       </c>
       <c r="R7" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S7" t="str">
-        <f ca="1">H7&amp;" Imported @ "&amp;TEXT(A7,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Customer Payment Instruction Imported @ 10:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:00 on 13 Sep 2019</v>
       </c>
       <c r="T7" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U7" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
         <v>0.41666666666666669</v>
       </c>
@@ -5101,64 +5074,64 @@
         <v>64</v>
       </c>
       <c r="G8" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-008</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-008</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I8" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-008</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-008</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L8" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1000.0008</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1000190913000008</v>
       </c>
       <c r="M8" t="s">
         <v>63</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>PAY</v>
       </c>
       <c r="O8" t="str">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>BRL</v>
       </c>
       <c r="P8" s="14">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>278</v>
       </c>
       <c r="Q8" t="s">
         <v>61</v>
       </c>
       <c r="R8" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S8" t="str">
-        <f ca="1">H8&amp;" Imported @ "&amp;TEXT(A8,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Customer Payment Instruction Imported @ 10:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:00 on 13 Sep 2019</v>
       </c>
       <c r="T8" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U8" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="85">
         <v>0.41666666666666669</v>
       </c>
@@ -5175,71 +5148,71 @@
         <v>64</v>
       </c>
       <c r="G9" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-009</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-009</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I9" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-009</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-009</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L9" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1000.0009</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1000190913000009</v>
       </c>
       <c r="M9" t="s">
         <v>63</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>PAY</v>
       </c>
       <c r="O9" t="str">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>BRL</v>
       </c>
       <c r="P9" s="14">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>7996</v>
       </c>
       <c r="Q9" t="s">
         <v>61</v>
       </c>
       <c r="R9" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S9" t="str">
-        <f ca="1">H9&amp;" Imported @ "&amp;TEXT(A9,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Customer Payment Instruction Imported @ 10:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:00 on 13 Sep 2019</v>
       </c>
       <c r="T9" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U9" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>0.4375</v>
       </c>
       <c r="B10" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="123" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="31">
@@ -5249,64 +5222,64 @@
         <v>71</v>
       </c>
       <c r="G10" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-010</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-010</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cash Transfer</v>
       </c>
       <c r="I10" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-010</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-010</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L10" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1030.0010</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1030190913000010</v>
       </c>
       <c r="M10" t="s">
         <v>63</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>RECEIVE</v>
       </c>
       <c r="O10" t="str">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>USD</v>
       </c>
       <c r="P10" s="14">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="Q10" t="s">
         <v>61</v>
       </c>
       <c r="R10" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S10" t="str">
-        <f ca="1">H10&amp;" Imported @ "&amp;TEXT(A10,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Cash Transfer Imported @ 10:30 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Cash Transfer Imported @ 10:30 on 13 Sep 2019</v>
       </c>
       <c r="T10" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U10" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>0.4375</v>
       </c>
@@ -5323,71 +5296,71 @@
         <v>64</v>
       </c>
       <c r="G11" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-011</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-011</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I11" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-011</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-011</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L11" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1030.0011</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1030190913000011</v>
       </c>
       <c r="M11" t="s">
         <v>63</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>PAY</v>
       </c>
       <c r="O11" t="str">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>BRL</v>
       </c>
       <c r="P11" s="14">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="Q11" t="s">
         <v>61</v>
       </c>
       <c r="R11" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S11" t="str">
-        <f ca="1">H11&amp;" Imported @ "&amp;TEXT(A11,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Customer Payment Instruction Imported @ 10:30 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:30 on 13 Sep 2019</v>
       </c>
       <c r="T11" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U11" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="87">
         <v>0.4381944444444445</v>
       </c>
       <c r="B12" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="124" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="34">
@@ -5397,71 +5370,71 @@
         <v>71</v>
       </c>
       <c r="G12" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-012</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-012</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cash Transfer</v>
       </c>
       <c r="I12" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-012</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-012</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L12" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0012</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000012</v>
       </c>
       <c r="M12" t="s">
         <v>63</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>RECEIVE</v>
       </c>
       <c r="O12" t="str">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>USD</v>
       </c>
       <c r="P12" s="14">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
       </c>
       <c r="R12" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S12" t="str">
-        <f ca="1">H12&amp;" Imported @ "&amp;TEXT(A12,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Cash Transfer Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Cash Transfer Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T12" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U12" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="87">
         <v>0.4381944444444445</v>
       </c>
       <c r="B13" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="124" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="34">
@@ -5471,64 +5444,64 @@
         <v>71</v>
       </c>
       <c r="G13" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-013</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-013</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cash Transfer</v>
       </c>
       <c r="I13" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-013</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-013</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L13" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0013</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000013</v>
       </c>
       <c r="M13" t="s">
         <v>63</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>RECEIVE</v>
       </c>
       <c r="O13" t="str">
-        <f>C13</f>
+        <f t="shared" si="0"/>
         <v>USD</v>
       </c>
       <c r="P13" s="14">
-        <f>D13</f>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="Q13" t="s">
         <v>61</v>
       </c>
       <c r="R13" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S13" t="str">
-        <f ca="1">H13&amp;" Imported @ "&amp;TEXT(A13,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Cash Transfer Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Cash Transfer Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T13" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U13" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -5545,64 +5518,64 @@
         <v>64</v>
       </c>
       <c r="G14" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-014</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-014</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I14" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-014</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-014</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L14" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0014</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000014</v>
       </c>
       <c r="M14" t="s">
         <v>63</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>PAY</v>
       </c>
       <c r="O14" t="str">
-        <f>C14</f>
+        <f t="shared" si="0"/>
         <v>BRL</v>
       </c>
       <c r="P14" s="14">
-        <f>D14</f>
+        <f t="shared" si="1"/>
         <v>1542</v>
       </c>
       <c r="Q14" t="s">
         <v>61</v>
       </c>
       <c r="R14" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S14" t="str">
-        <f ca="1">H14&amp;" Imported @ "&amp;TEXT(A14,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T14" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U14" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -5619,64 +5592,64 @@
         <v>64</v>
       </c>
       <c r="G15" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-015</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-015</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I15" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-015</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-015</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L15" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0015</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000015</v>
       </c>
       <c r="M15" t="s">
         <v>63</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" ref="N15:N50" si="9">E15</f>
+        <f t="shared" ref="N15:N50" si="12">E15</f>
         <v>PAY</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" ref="O15:O50" si="10">C15</f>
+        <f t="shared" ref="O15:O50" si="13">C15</f>
         <v>BRL</v>
       </c>
       <c r="P15" s="14">
-        <f t="shared" ref="P15:P50" si="11">D15</f>
+        <f t="shared" ref="P15:P50" si="14">D15</f>
         <v>3744.2</v>
       </c>
       <c r="Q15" t="s">
         <v>61</v>
       </c>
       <c r="R15" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" ref="S15:S50" ca="1" si="12">H15&amp;" Imported @ "&amp;TEXT(A15,"HH:MM")&amp;" on "&amp;TEXT(NOW(),"DD MMM YYYY")</f>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T15" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U15" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -5693,64 +5666,64 @@
         <v>64</v>
       </c>
       <c r="G16" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-016</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-016</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I16" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-016</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-016</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L16" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0016</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000016</v>
       </c>
       <c r="M16" t="s">
         <v>63</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P16" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4194.3999999999996</v>
       </c>
       <c r="Q16" t="s">
         <v>61</v>
       </c>
       <c r="R16" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T16" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U16" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -5767,64 +5740,64 @@
         <v>64</v>
       </c>
       <c r="G17" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-017</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-017</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I17" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-017</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-017</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L17" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0017</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000017</v>
       </c>
       <c r="M17" t="s">
         <v>63</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P17" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4644.6000000000004</v>
       </c>
       <c r="Q17" t="s">
         <v>61</v>
       </c>
       <c r="R17" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T17" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U17" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -5841,64 +5814,64 @@
         <v>64</v>
       </c>
       <c r="G18" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-018</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-018</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I18" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-018</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-018</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L18" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0018</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000018</v>
       </c>
       <c r="M18" t="s">
         <v>63</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P18" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5094.8</v>
       </c>
       <c r="Q18" t="s">
         <v>61</v>
       </c>
       <c r="R18" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T18" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U18" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -5915,64 +5888,64 @@
         <v>64</v>
       </c>
       <c r="G19" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-019</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-019</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I19" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-019</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-019</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L19" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0019</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000019</v>
       </c>
       <c r="M19" t="s">
         <v>63</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P19" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5545</v>
       </c>
       <c r="Q19" t="s">
         <v>61</v>
       </c>
       <c r="R19" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T19" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U19" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -5989,64 +5962,64 @@
         <v>64</v>
       </c>
       <c r="G20" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-020</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-020</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I20" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-020</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-020</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L20" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0020</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000020</v>
       </c>
       <c r="M20" t="s">
         <v>63</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P20" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5995.2</v>
       </c>
       <c r="Q20" t="s">
         <v>61</v>
       </c>
       <c r="R20" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T20" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U20" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -6063,64 +6036,64 @@
         <v>64</v>
       </c>
       <c r="G21" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-021</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-021</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I21" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-021</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-021</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L21" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0021</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000021</v>
       </c>
       <c r="M21" t="s">
         <v>63</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P21" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6445.4</v>
       </c>
       <c r="Q21" t="s">
         <v>61</v>
       </c>
       <c r="R21" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T21" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U21" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -6137,64 +6110,64 @@
         <v>64</v>
       </c>
       <c r="G22" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-022</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-022</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I22" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-022</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-022</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L22" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0022</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000022</v>
       </c>
       <c r="M22" t="s">
         <v>63</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6895.6</v>
       </c>
       <c r="Q22" t="s">
         <v>61</v>
       </c>
       <c r="R22" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T22" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U22" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -6211,64 +6184,64 @@
         <v>64</v>
       </c>
       <c r="G23" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-023</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I23" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-023</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-023</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L23" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0023</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000023</v>
       </c>
       <c r="M23" t="s">
         <v>63</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P23" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7345.8</v>
       </c>
       <c r="Q23" t="s">
         <v>61</v>
       </c>
       <c r="R23" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T23" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U23" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="87">
         <v>0.4381944444444445</v>
       </c>
@@ -6285,64 +6258,64 @@
         <v>73</v>
       </c>
       <c r="G24" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-024</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-024</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>FX Deal</v>
       </c>
       <c r="I24" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-024</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-024</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L24" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1031.0024</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1031190913000024</v>
       </c>
       <c r="M24" t="s">
         <v>63</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="P24" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q24" t="s">
         <v>61</v>
       </c>
       <c r="R24" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>FX Deal Imported @ 10:31 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 FX Deal Imported @ 10:31 on 13 Sep 2019</v>
       </c>
       <c r="T24" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U24" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6359,64 +6332,64 @@
         <v>64</v>
       </c>
       <c r="G25" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-025</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-025</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I25" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-025</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-025</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L25" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0025</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000025</v>
       </c>
       <c r="M25" t="s">
         <v>63</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P25" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8246.2000000000007</v>
       </c>
       <c r="Q25" t="s">
         <v>61</v>
       </c>
       <c r="R25" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T25" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U25" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6433,64 +6406,64 @@
         <v>64</v>
       </c>
       <c r="G26" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-026</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-026</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I26" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-026</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-026</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L26" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0026</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000026</v>
       </c>
       <c r="M26" t="s">
         <v>63</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P26" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8696.4</v>
       </c>
       <c r="Q26" t="s">
         <v>61</v>
       </c>
       <c r="R26" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T26" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U26" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6507,64 +6480,64 @@
         <v>64</v>
       </c>
       <c r="G27" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-027</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-027</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I27" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-027</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-027</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L27" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0027</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000027</v>
       </c>
       <c r="M27" t="s">
         <v>63</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>946.6</v>
       </c>
       <c r="Q27" t="s">
         <v>61</v>
       </c>
       <c r="R27" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T27" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U27" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6581,64 +6554,64 @@
         <v>64</v>
       </c>
       <c r="G28" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-028</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-028</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I28" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-028</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-028</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L28" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0028</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000028</v>
       </c>
       <c r="M28" t="s">
         <v>63</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>596.79999999999995</v>
       </c>
       <c r="Q28" t="s">
         <v>61</v>
       </c>
       <c r="R28" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T28" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U28" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6655,64 +6628,64 @@
         <v>64</v>
       </c>
       <c r="G29" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-029</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-029</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I29" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-029</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-029</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L29" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0029</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000029</v>
       </c>
       <c r="M29" t="s">
         <v>63</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>147</v>
       </c>
       <c r="Q29" t="s">
         <v>61</v>
       </c>
       <c r="R29" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T29" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U29" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6729,64 +6702,64 @@
         <v>64</v>
       </c>
       <c r="G30" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-030</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I30" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-030</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-030</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L30" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0030</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000030</v>
       </c>
       <c r="M30" t="s">
         <v>63</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P30" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10497.2</v>
       </c>
       <c r="Q30" t="s">
         <v>61</v>
       </c>
       <c r="R30" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T30" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U30" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249030</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6803,64 +6776,64 @@
         <v>64</v>
       </c>
       <c r="G31" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-031</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-031</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I31" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-031</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-031</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L31" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0031</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000031</v>
       </c>
       <c r="M31" t="s">
         <v>63</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P31" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5017.3999999999996</v>
       </c>
       <c r="Q31" t="s">
         <v>61</v>
       </c>
       <c r="R31" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T31" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U31" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6877,64 +6850,64 @@
         <v>64</v>
       </c>
       <c r="G32" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-032</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-032</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I32" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-032</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-032</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L32" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0032</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000032</v>
       </c>
       <c r="M32" t="s">
         <v>63</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P32" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5297.6</v>
       </c>
       <c r="Q32" t="s">
         <v>61</v>
       </c>
       <c r="R32" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T32" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U32" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -6951,64 +6924,64 @@
         <v>64</v>
       </c>
       <c r="G33" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-033</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-033</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I33" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-033</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-033</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L33" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0033</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000033</v>
       </c>
       <c r="M33" t="s">
         <v>63</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P33" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5577.8</v>
       </c>
       <c r="Q33" t="s">
         <v>61</v>
       </c>
       <c r="R33" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T33" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U33" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249033</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7025,64 +6998,64 @@
         <v>64</v>
       </c>
       <c r="G34" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-034</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-034</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I34" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-034</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-034</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L34" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0034</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000034</v>
       </c>
       <c r="M34" t="s">
         <v>63</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P34" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5858</v>
       </c>
       <c r="Q34" t="s">
         <v>61</v>
       </c>
       <c r="R34" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T34" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U34" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249034</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7099,64 +7072,64 @@
         <v>64</v>
       </c>
       <c r="G35" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-035</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-035</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I35" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-035</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-035</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L35" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0035</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000035</v>
       </c>
       <c r="M35" t="s">
         <v>63</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P35" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6138.2</v>
       </c>
       <c r="Q35" t="s">
         <v>61</v>
       </c>
       <c r="R35" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T35" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U35" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7173,64 +7146,64 @@
         <v>64</v>
       </c>
       <c r="G36" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-036</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-036</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I36" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-036</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-036</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L36" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0036</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000036</v>
       </c>
       <c r="M36" t="s">
         <v>63</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P36" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6418.4</v>
       </c>
       <c r="Q36" t="s">
         <v>61</v>
       </c>
       <c r="R36" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T36" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U36" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7247,64 +7220,64 @@
         <v>64</v>
       </c>
       <c r="G37" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-037</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-037</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I37" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-037</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-037</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L37" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0037</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000037</v>
       </c>
       <c r="M37" t="s">
         <v>63</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P37" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6698.6</v>
       </c>
       <c r="Q37" t="s">
         <v>61</v>
       </c>
       <c r="R37" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T37" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U37" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249037</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7321,64 +7294,64 @@
         <v>64</v>
       </c>
       <c r="G38" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-038</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-038</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I38" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-038</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-038</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L38" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0038</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000038</v>
       </c>
       <c r="M38" t="s">
         <v>63</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P38" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6978.8</v>
       </c>
       <c r="Q38" t="s">
         <v>61</v>
       </c>
       <c r="R38" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T38" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U38" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249038</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7395,64 +7368,64 @@
         <v>64</v>
       </c>
       <c r="G39" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-039</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-039</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I39" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-039</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-039</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L39" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0039</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000039</v>
       </c>
       <c r="M39" t="s">
         <v>63</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P39" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7259</v>
       </c>
       <c r="Q39" t="s">
         <v>61</v>
       </c>
       <c r="R39" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T39" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U39" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249039</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7469,64 +7442,64 @@
         <v>64</v>
       </c>
       <c r="G40" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-040</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-040</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I40" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-040</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-040</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L40" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0040</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000040</v>
       </c>
       <c r="M40" t="s">
         <v>63</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P40" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7539.2</v>
       </c>
       <c r="Q40" t="s">
         <v>61</v>
       </c>
       <c r="R40" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T40" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U40" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249040</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7543,64 +7516,64 @@
         <v>64</v>
       </c>
       <c r="G41" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-041</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-041</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I41" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-041</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-041</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L41" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0041</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000041</v>
       </c>
       <c r="M41" t="s">
         <v>63</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P41" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7819.4</v>
       </c>
       <c r="Q41" t="s">
         <v>61</v>
       </c>
       <c r="R41" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T41" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U41" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249041</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7617,64 +7590,64 @@
         <v>64</v>
       </c>
       <c r="G42" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-042</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I42" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-042</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-042</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L42" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0042</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000042</v>
       </c>
       <c r="M42" t="s">
         <v>63</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P42" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8099.6</v>
       </c>
       <c r="Q42" t="s">
         <v>61</v>
       </c>
       <c r="R42" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T42" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U42" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249042</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7691,64 +7664,64 @@
         <v>64</v>
       </c>
       <c r="G43" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-043</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-043</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I43" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-043</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-043</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L43" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0043</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000043</v>
       </c>
       <c r="M43" t="s">
         <v>63</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P43" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8379.7999999999993</v>
       </c>
       <c r="Q43" t="s">
         <v>61</v>
       </c>
       <c r="R43" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T43" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U43" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249043</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7765,64 +7738,64 @@
         <v>64</v>
       </c>
       <c r="G44" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-044</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-044</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I44" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-044</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-044</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L44" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0044</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000044</v>
       </c>
       <c r="M44" t="s">
         <v>63</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P44" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8660</v>
       </c>
       <c r="Q44" t="s">
         <v>61</v>
       </c>
       <c r="R44" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T44" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U44" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7839,64 +7812,64 @@
         <v>64</v>
       </c>
       <c r="G45" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-045</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-045</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I45" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-045</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-045</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L45" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0045</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000045</v>
       </c>
       <c r="M45" t="s">
         <v>63</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8940.2000000000007</v>
       </c>
       <c r="Q45" t="s">
         <v>61</v>
       </c>
       <c r="R45" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T45" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U45" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249045</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7913,64 +7886,64 @@
         <v>64</v>
       </c>
       <c r="G46" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-046</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-046</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I46" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-046</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-046</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L46" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0046</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000046</v>
       </c>
       <c r="M46" t="s">
         <v>63</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P46" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9220.4</v>
       </c>
       <c r="Q46" t="s">
         <v>61</v>
       </c>
       <c r="R46" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T46" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U46" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -7987,64 +7960,64 @@
         <v>64</v>
       </c>
       <c r="G47" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-047</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-047</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I47" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-047</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-047</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L47" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0047</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000047</v>
       </c>
       <c r="M47" t="s">
         <v>63</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P47" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9500.6</v>
       </c>
       <c r="Q47" t="s">
         <v>61</v>
       </c>
       <c r="R47" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T47" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U47" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -8061,64 +8034,64 @@
         <v>64</v>
       </c>
       <c r="G48" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-048</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-048</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I48" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-048</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-048</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L48" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0048</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000048</v>
       </c>
       <c r="M48" t="s">
         <v>63</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P48" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9780.7999999999993</v>
       </c>
       <c r="Q48" t="s">
         <v>61</v>
       </c>
       <c r="R48" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T48" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U48" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249048</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -8135,64 +8108,64 @@
         <v>64</v>
       </c>
       <c r="G49" s="118" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20190912-142249-049</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20190913-125432-049</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="I49" s="118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>20190912-142249-049</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20190913-125432-049</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L49" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0049</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000049</v>
       </c>
       <c r="M49" t="s">
         <v>63</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>PAY</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>BRL</v>
       </c>
       <c r="P49" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10061</v>
       </c>
       <c r="Q49" t="s">
         <v>61</v>
       </c>
       <c r="R49" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Customer Payment Instruction Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 Customer Payment Instruction Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T49" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U49" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>HSBEL20190912142249049</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>HSBEL20190913125432049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="89">
         <v>0.54166666666666663</v>
       </c>
@@ -8209,56 +8182,56 @@
         <v>73</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>FX Deal</v>
       </c>
       <c r="I50" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50" s="117">
-        <f t="shared" ca="1" si="3"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43721</v>
       </c>
       <c r="L50" s="119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>ext.190912.1300.0050</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>ext.UC1.1300190913000050</v>
       </c>
       <c r="M50" t="s">
         <v>63</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="P50" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-</v>
       </c>
       <c r="Q50" t="s">
         <v>61</v>
       </c>
       <c r="R50" s="117">
-        <f t="shared" ca="1" si="7"/>
-        <v>43720</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43721</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>FX Deal Imported @ 13:00 on 12 Sep 2019</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>UC1 FX Deal Imported @ 13:00 on 13 Sep 2019</v>
       </c>
       <c r="T50" s="116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>HOMESEND BELGIUM</v>
       </c>
       <c r="U50" s="118" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>HSBEL</v>
       </c>
     </row>
@@ -8271,7 +8244,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D26BE76-9284-40A1-B020-22837F030915}">
           <x14:formula1>
-            <xm:f>'C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\XML Deal Generator\[XMLDealGenerator-WorkshopUseCase123.xlsm]Accounts'!#REF!</xm:f>
+            <xm:f>'/Users/matttownsend/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\XML Deal Generator\[XMLDealGenerator-WorkshopUseCase123.xlsm]Accounts'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>Q1:Q50</xm:sqref>
         </x14:dataValidation>
